--- a/XPathIdData.xlsx
+++ b/XPathIdData.xlsx
@@ -8,6 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="103">
   <si>
     <t>.//*[contains(@id,'-3')]/span</t>
   </si>
@@ -295,18 +296,9 @@
     <t>In MockLogin page, the xpath of the login button is defined here</t>
   </si>
   <si>
-    <t>FAQ</t>
-  </si>
-  <si>
     <t>ol.nav-breadcrumb-wrapper li</t>
   </si>
   <si>
-    <t>FAQDefault</t>
-  </si>
-  <si>
-    <t>FAQCategoryTitle</t>
-  </si>
-  <si>
     <t>h2.faqs-landing-header</t>
   </si>
   <si>
@@ -332,6 +324,12 @@
   </si>
   <si>
     <t>Question_Count</t>
+  </si>
+  <si>
+    <t>FAQDefaultCategoryTitle</t>
+  </si>
+  <si>
+    <t>FAQPageCategoryTitle</t>
   </si>
 </sst>
 </file>
@@ -668,10 +666,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C55"/>
+  <dimension ref="A1:C54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="B55" sqref="B55"/>
+    <sheetView tabSelected="1" topLeftCell="A57" workbookViewId="0">
+      <selection activeCell="A50" sqref="A50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1082,7 +1080,7 @@
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="B49" t="s">
         <v>91</v>
@@ -1090,7 +1088,7 @@
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B50" t="s">
         <v>92</v>
@@ -1098,26 +1096,26 @@
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
+        <v>101</v>
+      </c>
+      <c r="B51" t="s">
         <v>93</v>
-      </c>
-      <c r="B51" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
+        <v>95</v>
+      </c>
+      <c r="B52" t="s">
         <v>94</v>
-      </c>
-      <c r="B52" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B53" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.35">
@@ -1126,18 +1124,22 @@
       </c>
       <c r="B54" t="s">
         <v>99</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A55" t="s">
-        <v>103</v>
-      </c>
-      <c r="B55" t="s">
-        <v>102</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>